--- a/Passing.xlsx
+++ b/Passing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Estudos\PosCD\Projeto Aplicado\Dados Coletados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6611EE97-D085-4567-B062-2525A2585169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78788EC3-572D-44A4-84C9-5FB5F38C5731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>Total</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>Alan Carvalho</t>
-  </si>
-  <si>
-    <t>Squad Total</t>
   </si>
   <si>
     <t>Fabio</t>
@@ -741,10 +738,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1105,7 +1102,7 @@
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,42 +1134,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1247,8 +1244,8 @@
       <c r="X2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>69</v>
+      <c r="Y2" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>19</v>
@@ -1262,10 +1259,10 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1352,10 +1349,10 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1409,7 +1406,7 @@
         <v>40</v>
       </c>
       <c r="S4" s="3">
-        <f t="shared" ref="S4:S35" si="3">(Q4/R4)*100</f>
+        <f t="shared" ref="S4:S33" si="3">(Q4/R4)*100</f>
         <v>75</v>
       </c>
       <c r="T4" s="2">
@@ -1442,10 +1439,10 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1535,7 +1532,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -1625,7 +1622,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
@@ -1715,7 +1712,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -1805,7 +1802,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
@@ -1895,7 +1892,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
@@ -1985,7 +1982,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -2075,7 +2072,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -2165,7 +2162,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -2255,7 +2252,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>37</v>
@@ -2345,7 +2342,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
@@ -2435,7 +2432,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -2525,7 +2522,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>28</v>
@@ -2615,7 +2612,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
@@ -2705,7 +2702,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
@@ -2795,7 +2792,7 @@
         <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>28</v>
@@ -2885,7 +2882,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>28</v>
@@ -2975,7 +2972,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>46</v>
@@ -3065,7 +3062,7 @@
         <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>28</v>
@@ -3155,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>28</v>
@@ -3245,7 +3242,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>30</v>
@@ -3335,7 +3332,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>28</v>
@@ -3425,7 +3422,7 @@
         <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>28</v>
@@ -3515,7 +3512,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>30</v>
@@ -3605,7 +3602,7 @@
         <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>30</v>
@@ -3695,7 +3692,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>30</v>
@@ -3782,7 +3779,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -3872,7 +3869,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>30</v>
@@ -3962,7 +3959,7 @@
         <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>37</v>
@@ -4052,7 +4049,7 @@
         <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>30</v>
@@ -4135,110 +4132,34 @@
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="4">
-        <f>AVERAGE(D3:D34)</f>
-        <v>26.90625</v>
-      </c>
-      <c r="E35" s="2">
-        <v>38</v>
-      </c>
-      <c r="F35" s="2">
-        <f>SUM(F3:F34)</f>
-        <v>18664</v>
-      </c>
-      <c r="G35" s="2">
-        <f>SUM(G3:G34)</f>
-        <v>22006</v>
-      </c>
-      <c r="H35" s="3">
-        <f>(F35/G35)*100</f>
-        <v>84.813232754703265</v>
-      </c>
-      <c r="I35" s="2">
-        <f>SUM(I3:I34)</f>
-        <v>284850</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" ref="J35:L35" si="4">SUM(J3:J34)</f>
-        <v>95114</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="4"/>
-        <v>10263</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="4"/>
-        <v>11144</v>
-      </c>
-      <c r="M35" s="3">
-        <f t="shared" si="1"/>
-        <v>92.094400574300067</v>
-      </c>
-      <c r="N35" s="2">
-        <f>SUM(N3:N34)</f>
-        <v>6255</v>
-      </c>
-      <c r="O35" s="2">
-        <f>SUM(O3:O34)</f>
-        <v>7131</v>
-      </c>
-      <c r="P35" s="3">
-        <f t="shared" si="2"/>
-        <v>87.715607909129162</v>
-      </c>
-      <c r="Q35" s="2">
-        <f>SUM(Q3:Q34)</f>
-        <v>1290</v>
-      </c>
-      <c r="R35" s="2">
-        <f>SUM(R3:R34)</f>
-        <v>2166</v>
-      </c>
-      <c r="S35" s="3">
-        <f>(Q35/R35)*100</f>
-        <v>59.556786703601105</v>
-      </c>
-      <c r="T35" s="2">
-        <f>SUM(T3:T34)</f>
-        <v>47</v>
-      </c>
-      <c r="U35" s="2">
-        <f t="shared" ref="U35:AB35" si="5">SUM(U3:U34)</f>
-        <v>37.800000000000004</v>
-      </c>
-      <c r="V35" s="2">
-        <f t="shared" si="5"/>
-        <v>39.500000000000021</v>
-      </c>
-      <c r="W35" s="2">
-        <f t="shared" si="5"/>
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="X35" s="2">
-        <f t="shared" si="5"/>
-        <v>433</v>
-      </c>
-      <c r="Y35" s="2">
-        <f t="shared" si="5"/>
-        <v>1370</v>
-      </c>
-      <c r="Z35" s="2">
-        <f t="shared" si="5"/>
-        <v>311</v>
-      </c>
-      <c r="AA35" s="2">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="AB35" s="2">
-        <f t="shared" si="5"/>
-        <v>1625</v>
-      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
